--- a/物编表.xlsx
+++ b/物编表.xlsx
@@ -10,6 +10,8 @@
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="通魔_ANcl" sheetId="3" r:id="rId2"/>
     <sheet name="表格解释" sheetId="2" r:id="rId3"/>
+    <sheet name="道具信息" sheetId="4" r:id="rId4"/>
+    <sheet name="特性表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>技能编号</t>
   </si>
@@ -313,6 +315,111 @@
   </si>
   <si>
     <t>不要破坏表格结构</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>道具名称</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>道具品质</t>
+  </si>
+  <si>
+    <t>道具属性</t>
+  </si>
+  <si>
+    <t>道具特性</t>
+  </si>
+  <si>
+    <t>道具描述</t>
+  </si>
+  <si>
+    <t>炎魔之手</t>
+  </si>
+  <si>
+    <t>主手</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>①攻击力：+500万</t>
+  </si>
+  <si>
+    <t>①灼热地狱</t>
+  </si>
+  <si>
+    <t>炎魔之王的武器</t>
+  </si>
+  <si>
+    <t>霜之哀伤</t>
+  </si>
+  <si>
+    <t>①寒冰之息</t>
+  </si>
+  <si>
+    <t>巫妖王的武器</t>
+  </si>
+  <si>
+    <t>埃辛诺斯之刃·主</t>
+  </si>
+  <si>
+    <t>①攻击力：+300万</t>
+  </si>
+  <si>
+    <t>①恶魔之力</t>
+  </si>
+  <si>
+    <t>恶魔猎手的武器</t>
+  </si>
+  <si>
+    <t>埃辛诺斯之刃·副</t>
+  </si>
+  <si>
+    <t>副手</t>
+  </si>
+  <si>
+    <t>①攻击力：+200万</t>
+  </si>
+  <si>
+    <t>特性名称</t>
+  </si>
+  <si>
+    <t>特性属性</t>
+  </si>
+  <si>
+    <t>无法战回</t>
+  </si>
+  <si>
+    <t>无法在战斗中进行回复</t>
+  </si>
+  <si>
+    <t>可以战回</t>
+  </si>
+  <si>
+    <t>可以在战斗中进行回复</t>
+  </si>
+  <si>
+    <t>寒冰之息</t>
+  </si>
+  <si>
+    <t>每次攻击有【5%】的概率冰封敌人</t>
+  </si>
+  <si>
+    <t>灼热地狱</t>
+  </si>
+  <si>
+    <t>每秒对周围造成【100*人物等级】点伤害</t>
+  </si>
+  <si>
+    <t>恶魔之力</t>
+  </si>
+  <si>
+    <t>每次攻击有【5%】的概率扣除【5%】的当前生命值</t>
   </si>
 </sst>
 </file>
@@ -321,8 +428,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -341,36 +448,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -380,36 +457,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,13 +487,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -484,6 +575,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -494,19 +601,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,163 +727,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +792,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,59 +836,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,6 +866,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,10 +900,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,139 +912,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,481 +1386,481 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="6" width="12.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="3" customWidth="1"/>
+    <col min="18" max="19" width="15" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15" style="3" customWidth="1"/>
+    <col min="24" max="24" width="8.875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:26">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:26">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:26">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:26">
+      <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:J3" si="0">INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <f>INT(400)</f>
         <v>400</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <f t="shared" ref="L3:S3" si="1">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <f>INT(120)</f>
         <v>120</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="6">
         <f>INT(1)</f>
         <v>1</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="6">
         <f t="shared" ref="T3:W3" si="2">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="6">
         <f t="shared" ref="X3:Z3" si="3">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:26">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:26">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:J4" si="4">INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <f>INT(400)</f>
         <v>400</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <f t="shared" ref="L4:S4" si="5">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <f>INT(120)</f>
         <v>120</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <f>INT(1)</f>
         <v>1</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="6">
         <f t="shared" ref="T4:W4" si="6">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="6">
         <f t="shared" ref="X4:Z4" si="7">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:26">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:26">
+      <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <f>INT(400)</f>
         <v>400</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <f t="shared" ref="L5:S5" si="8">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <f>INT(120)</f>
         <v>120</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <f>INT(1)</f>
         <v>1</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="6">
         <f t="shared" ref="T5:W5" si="9">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="6">
         <f t="shared" ref="X5:Z5" si="10">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:4">
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" s="3" customFormat="1" spans="2:4">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1762,7 +1875,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1790,45 +1903,32 @@
     <col min="25" max="25" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
@@ -1836,7 +1936,7 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
@@ -1844,7 +1944,7 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -1913,4 +2013,232 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/物编表.xlsx
+++ b/物编表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8400" activeTab="1"/>
+    <workbookView windowWidth="23235" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>技能编号</t>
   </si>
@@ -245,9 +245,6 @@
     <t>I001</t>
   </si>
   <si>
-    <t>"道具1"</t>
-  </si>
-  <si>
     <t>"测试专用"</t>
   </si>
   <si>
@@ -257,16 +254,10 @@
     <t>I002</t>
   </si>
   <si>
-    <t>"道具22"</t>
-  </si>
-  <si>
-    <t>"ReplaceableTextures\CommandButtons\BTNAlleriaFlute.blp"</t>
-  </si>
-  <si>
     <t>I003</t>
   </si>
   <si>
-    <t>"道具33"</t>
+    <t>I004</t>
   </si>
   <si>
     <t>A001</t>
@@ -338,7 +329,7 @@
     <t>道具描述</t>
   </si>
   <si>
-    <t>炎魔之手</t>
+    <t>"炎魔之手"</t>
   </si>
   <si>
     <t>主手</t>
@@ -350,13 +341,13 @@
     <t>①攻击力：+500万</t>
   </si>
   <si>
-    <t>①灼热地狱</t>
+    <t>①灼热地狱|②致命之握</t>
   </si>
   <si>
     <t>炎魔之王的武器</t>
   </si>
   <si>
-    <t>霜之哀伤</t>
+    <t>"霜之哀伤"</t>
   </si>
   <si>
     <t>①寒冰之息</t>
@@ -365,7 +356,7 @@
     <t>巫妖王的武器</t>
   </si>
   <si>
-    <t>埃辛诺斯之刃·主</t>
+    <t>"埃辛诺斯之刃*主"</t>
   </si>
   <si>
     <t>①攻击力：+300万</t>
@@ -377,7 +368,7 @@
     <t>恶魔猎手的武器</t>
   </si>
   <si>
-    <t>埃辛诺斯之刃·副</t>
+    <t>"埃辛诺斯之刃*副"</t>
   </si>
   <si>
     <t>副手</t>
@@ -420,6 +411,12 @@
   </si>
   <si>
     <t>每次攻击有【5%】的概率扣除【5%】的当前生命值</t>
+  </si>
+  <si>
+    <t>致命之握</t>
+  </si>
+  <si>
+    <t>每次攻击有【6%】的概率扣除【1%】的当前生命值</t>
   </si>
 </sst>
 </file>
@@ -427,11 +424,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -446,36 +443,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -493,8 +460,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,22 +485,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,9 +498,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,7 +537,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,17 +575,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,109 +598,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,73 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,15 +789,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,6 +807,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -830,24 +862,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,26 +883,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,10 +897,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,139 +909,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1052,6 +1052,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,6 +1062,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1385,482 +1391,574 @@
   <sheetPr/>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="3" customWidth="1"/>
-    <col min="18" max="19" width="15" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15" style="3" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.875" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="8.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="12.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="62.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="5" customWidth="1"/>
+    <col min="13" max="14" width="12.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="5" customWidth="1"/>
+    <col min="18" max="19" width="15" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="15" style="5" customWidth="1"/>
+    <col min="24" max="24" width="8.875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="12.875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:26">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:26">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:26">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:26">
+      <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="str">
+        <f>道具信息!B2</f>
+        <v>"炎魔之手"</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="9">
         <f t="shared" ref="H3:J3" si="0">INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="9">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="K3" s="6">
-        <f>INT(400)</f>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K6" si="1">INT(400)</f>
         <v>400</v>
       </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:S3" si="1">INT(0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:S3" si="2">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3:N6" si="3">INT(120)</f>
+        <v>120</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O6" si="4">INT(1)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" ref="T3:W3" si="5">INT(1)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" ref="X3:Z3" si="6">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:26">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>道具信息!B3</f>
+        <v>"霜之哀伤"</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:J4" si="7">INT(255)</f>
+        <v>255</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="K4" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <f>INT(120)</f>
+        <v>400</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ref="L4:S4" si="8">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="O3" s="6">
-        <f>INT(1)</f>
+      <c r="O4" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <f t="shared" ref="T3:W3" si="2">INT(1)</f>
+      <c r="P4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" ref="T4:W4" si="9">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U3" s="6">
-        <f t="shared" si="2"/>
+      <c r="U4" s="9">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V3" s="6">
-        <f t="shared" si="2"/>
+      <c r="V4" s="9">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W3" s="6">
-        <f t="shared" si="2"/>
+      <c r="W4" s="9">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X3" s="6">
-        <f t="shared" ref="X3:Z3" si="3">INT(0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:26">
-      <c r="A4" s="3" t="s">
+      <c r="X4" s="9">
+        <f t="shared" ref="X4:Z4" si="10">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:26">
+      <c r="A5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:J4" si="4">INT(255)</f>
-        <v>255</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-      <c r="K4" s="6">
-        <f>INT(400)</f>
-        <v>400</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ref="L4:S4" si="5">INT(0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <f>INT(120)</f>
-        <v>120</v>
-      </c>
-      <c r="O4" s="6">
-        <f>INT(1)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <f t="shared" ref="T4:W4" si="6">INT(1)</f>
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="6">
-        <f t="shared" ref="X4:Z4" si="7">INT(0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:26">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="C5" s="8" t="str">
+        <f>道具信息!B4</f>
+        <v>"埃辛诺斯之刃*主"</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="9">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="K5" s="6">
-        <f>INT(400)</f>
+      <c r="K5" s="9">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:S5" si="8">INT(0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <f>INT(120)</f>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:S5" si="11">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="O5" s="6">
-        <f>INT(1)</f>
+      <c r="O5" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <f t="shared" ref="T5:W5" si="9">INT(1)</f>
+      <c r="P5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" ref="T5:W5" si="12">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U5" s="6">
-        <f t="shared" si="9"/>
+      <c r="U5" s="9">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="V5" s="6">
-        <f t="shared" si="9"/>
+      <c r="V5" s="9">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W5" s="6">
-        <f t="shared" si="9"/>
+      <c r="W5" s="9">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="X5" s="6">
-        <f t="shared" ref="X5:Z5" si="10">INT(0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:4">
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="X5" s="9">
+        <f t="shared" ref="X5:Z5" si="13">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>道具信息!B5</f>
+        <v>"埃辛诺斯之刃*副"</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:J6" si="14">INT(255)</f>
+        <v>255</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" ref="L6:S6" si="15">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" ref="T6:W6" si="16">INT(1)</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" ref="X6:Z6" si="17">INT(0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:4">
+      <c r="B7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1874,7 +1972,7 @@
   <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1903,52 +2001,52 @@
     <col min="25" max="25" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" ht="16.5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="B5" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1971,42 +2069,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2021,132 +2119,132 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>96</v>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2158,13 +2256,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
@@ -2173,13 +2271,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2187,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2198,10 +2296,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2209,10 +2307,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2220,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2231,11 +2329,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/物编表.xlsx
+++ b/物编表.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="13140"/>
+    <workbookView windowWidth="20475" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
-    <sheet name="通魔_ANcl" sheetId="3" r:id="rId2"/>
-    <sheet name="表格解释" sheetId="2" r:id="rId3"/>
-    <sheet name="道具信息" sheetId="4" r:id="rId4"/>
-    <sheet name="特性表" sheetId="5" r:id="rId5"/>
+    <sheet name="道具注册" sheetId="6" r:id="rId2"/>
+    <sheet name="道具信息" sheetId="4" r:id="rId3"/>
+    <sheet name="通魔_ANcl" sheetId="3" r:id="rId4"/>
+    <sheet name="表格解释" sheetId="2" r:id="rId5"/>
+    <sheet name="特性表" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -84,182 +85,257 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+  <si>
+    <t>道具编号</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>道具名</t>
+  </si>
+  <si>
+    <t>地上文本描述</t>
+  </si>
+  <si>
+    <t>商店提示信息</t>
+  </si>
+  <si>
+    <t>玩家装备信息</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>黄金消耗</t>
+  </si>
+  <si>
+    <t>木材消耗</t>
+  </si>
+  <si>
+    <t>购买开始时间</t>
+  </si>
+  <si>
+    <t>购买时间间隔</t>
+  </si>
+  <si>
+    <t>最大库存量</t>
+  </si>
+  <si>
+    <t>CD间隔组</t>
+  </si>
+  <si>
+    <t>无视CD间隔</t>
+  </si>
+  <si>
+    <t>持有者死亡掉落</t>
+  </si>
+  <si>
+    <t>捡取时自动使用</t>
+  </si>
+  <si>
+    <t>可被市场出售</t>
+  </si>
+  <si>
+    <t>可以被抵押</t>
+  </si>
+  <si>
+    <t>可以丢弃</t>
+  </si>
+  <si>
+    <t>可作为随机物品</t>
+  </si>
+  <si>
+    <t>使用次数</t>
+  </si>
+  <si>
+    <t>使用完会消失</t>
+  </si>
+  <si>
+    <t>主动使用</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>abilList</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tip</t>
+  </si>
+  <si>
+    <t>Ubertip</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>colorR</t>
+  </si>
+  <si>
+    <t>colorB</t>
+  </si>
+  <si>
+    <t>colorG</t>
+  </si>
+  <si>
+    <t>goldcost</t>
+  </si>
+  <si>
+    <t>luabercost</t>
+  </si>
+  <si>
+    <t>stockStart</t>
+  </si>
+  <si>
+    <t>stockRegen</t>
+  </si>
+  <si>
+    <t>stockMax</t>
+  </si>
+  <si>
+    <t>cooldownID</t>
+  </si>
+  <si>
+    <t>ignoreCD</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>powerup</t>
+  </si>
+  <si>
+    <t>sellable</t>
+  </si>
+  <si>
+    <t>pawnable</t>
+  </si>
+  <si>
+    <t>droppable</t>
+  </si>
+  <si>
+    <t>pickRandom</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>perishable</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>I001</t>
+  </si>
+  <si>
+    <t>"测试专用"</t>
+  </si>
+  <si>
+    <t>"AEar"</t>
+  </si>
+  <si>
+    <t>I002</t>
+  </si>
+  <si>
+    <t>I003</t>
+  </si>
+  <si>
+    <t>I004</t>
+  </si>
+  <si>
+    <t>道具名称</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>道具品质</t>
+  </si>
+  <si>
+    <t>道具属性</t>
+  </si>
+  <si>
+    <t>道具特性</t>
+  </si>
+  <si>
+    <t>道具描述</t>
+  </si>
+  <si>
+    <t>"炎魔之手"</t>
+  </si>
+  <si>
+    <t>主手</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>①攻击力：+500万</t>
+  </si>
+  <si>
+    <t>①灼热地狱|②致命之握</t>
+  </si>
+  <si>
+    <t>炎魔之王的武器</t>
+  </si>
+  <si>
+    <t>"霜之哀伤"</t>
+  </si>
+  <si>
+    <t>①寒冰之息</t>
+  </si>
+  <si>
+    <t>巫妖王的武器</t>
+  </si>
+  <si>
+    <t>"埃辛诺斯之刃*主"</t>
+  </si>
+  <si>
+    <t>①攻击力：+300万</t>
+  </si>
+  <si>
+    <t>①恶魔之力</t>
+  </si>
+  <si>
+    <t>恶魔猎手的武器</t>
+  </si>
+  <si>
+    <t>"埃辛诺斯之刃*副"</t>
+  </si>
+  <si>
+    <t>副手</t>
+  </si>
+  <si>
+    <t>①攻击力：+200万</t>
+  </si>
   <si>
     <t>技能编号</t>
   </si>
   <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>道具名</t>
-  </si>
-  <si>
-    <t>地上文本描述</t>
-  </si>
-  <si>
-    <t>商店提示信息</t>
-  </si>
-  <si>
-    <t>玩家装备信息</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>黄金消耗</t>
-  </si>
-  <si>
-    <t>木材消耗</t>
-  </si>
-  <si>
-    <t>购买开始时间</t>
-  </si>
-  <si>
-    <t>购买时间间隔</t>
-  </si>
-  <si>
-    <t>最大库存量</t>
-  </si>
-  <si>
-    <t>CD间隔组</t>
-  </si>
-  <si>
-    <t>无视CD间隔</t>
-  </si>
-  <si>
-    <t>持有者死亡掉落</t>
-  </si>
-  <si>
-    <t>捡取时自动使用</t>
-  </si>
-  <si>
-    <t>可被市场出售</t>
-  </si>
-  <si>
-    <t>可以被抵押</t>
-  </si>
-  <si>
-    <t>可以丢弃</t>
-  </si>
-  <si>
-    <t>可作为随机物品</t>
-  </si>
-  <si>
-    <t>使用次数</t>
-  </si>
-  <si>
-    <t>使用完会消失</t>
-  </si>
-  <si>
-    <t>主动使用</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>abilList</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Tip</t>
-  </si>
-  <si>
-    <t>Ubertip</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>colorR</t>
-  </si>
-  <si>
-    <t>colorB</t>
-  </si>
-  <si>
-    <t>colorG</t>
-  </si>
-  <si>
-    <t>goldcost</t>
-  </si>
-  <si>
-    <t>luabercost</t>
-  </si>
-  <si>
-    <t>stockStart</t>
-  </si>
-  <si>
-    <t>stockRegen</t>
-  </si>
-  <si>
-    <t>stockMax</t>
-  </si>
-  <si>
-    <t>cooldownID</t>
-  </si>
-  <si>
-    <t>ignoreCD</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>powerup</t>
-  </si>
-  <si>
-    <t>sellable</t>
-  </si>
-  <si>
-    <t>pawnable</t>
-  </si>
-  <si>
-    <t>droppable</t>
-  </si>
-  <si>
-    <t>pickRandom</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>perishable</t>
-  </si>
-  <si>
-    <t>usable</t>
-  </si>
-  <si>
-    <t>I001</t>
-  </si>
-  <si>
-    <t>"测试专用"</t>
-  </si>
-  <si>
-    <t>"AEar"</t>
-  </si>
-  <si>
-    <t>I002</t>
-  </si>
-  <si>
-    <t>I003</t>
-  </si>
-  <si>
-    <t>I004</t>
-  </si>
-  <si>
     <t>A001</t>
   </si>
   <si>
@@ -306,75 +382,6 @@
   </si>
   <si>
     <t>不要破坏表格结构</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>道具名称</t>
-  </si>
-  <si>
-    <t>道具类型</t>
-  </si>
-  <si>
-    <t>道具品质</t>
-  </si>
-  <si>
-    <t>道具属性</t>
-  </si>
-  <si>
-    <t>道具特性</t>
-  </si>
-  <si>
-    <t>道具描述</t>
-  </si>
-  <si>
-    <t>"炎魔之手"</t>
-  </si>
-  <si>
-    <t>主手</t>
-  </si>
-  <si>
-    <t>传说</t>
-  </si>
-  <si>
-    <t>①攻击力：+500万</t>
-  </si>
-  <si>
-    <t>①灼热地狱|②致命之握</t>
-  </si>
-  <si>
-    <t>炎魔之王的武器</t>
-  </si>
-  <si>
-    <t>"霜之哀伤"</t>
-  </si>
-  <si>
-    <t>①寒冰之息</t>
-  </si>
-  <si>
-    <t>巫妖王的武器</t>
-  </si>
-  <si>
-    <t>"埃辛诺斯之刃*主"</t>
-  </si>
-  <si>
-    <t>①攻击力：+300万</t>
-  </si>
-  <si>
-    <t>①恶魔之力</t>
-  </si>
-  <si>
-    <t>恶魔猎手的武器</t>
-  </si>
-  <si>
-    <t>"埃辛诺斯之刃*副"</t>
-  </si>
-  <si>
-    <t>副手</t>
-  </si>
-  <si>
-    <t>①攻击力：+200万</t>
   </si>
   <si>
     <t>特性名称</t>
@@ -424,11 +431,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -445,16 +452,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,37 +475,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,14 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -537,31 +500,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,7 +522,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,37 +605,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,67 +689,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,25 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,43 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,6 +796,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,17 +829,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,15 +860,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,26 +888,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,149 +904,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,12 +1056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,6 +1063,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1391,574 +1395,572 @@
   <sheetPr/>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="12.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="62.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="12.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="5" customWidth="1"/>
-    <col min="18" max="19" width="15" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="10.875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="15" style="5" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="12.875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.875" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="8.875" style="5"/>
+    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="12.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="3" customWidth="1"/>
+    <col min="18" max="19" width="15" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15" style="3" customWidth="1"/>
+    <col min="24" max="24" width="8.875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:26">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:26">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:26">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:26">
+      <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="7" t="str">
         <f>道具信息!B2</f>
         <v>"炎魔之手"</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:J3" si="0">INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f t="shared" ref="K3:K6" si="1">INT(400)</f>
         <v>400</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <f t="shared" ref="L3:S3" si="2">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f t="shared" ref="N3:N6" si="3">INT(120)</f>
         <v>120</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:O6" si="4">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <f t="shared" ref="T3:W3" si="5">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <f t="shared" ref="X3:Z3" si="6">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:26">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:26">
+      <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="7" t="str">
         <f>道具信息!B3</f>
         <v>"霜之哀伤"</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:J4" si="7">INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f t="shared" si="7"/>
         <v>255</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f t="shared" si="7"/>
         <v>255</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f t="shared" ref="L4:S4" si="8">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <f t="shared" ref="T4:W4" si="9">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="8">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="8">
         <f t="shared" ref="X4:Z4" si="10">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:26">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:26">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="7" t="str">
         <f>道具信息!B4</f>
         <v>"埃辛诺斯之刃*主"</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f>INT(255)</f>
         <v>255</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:S5" si="11">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <f t="shared" ref="T5:W5" si="12">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="8">
         <f t="shared" ref="X5:Z5" si="13">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="7" t="str">
         <f>道具信息!B5</f>
         <v>"埃辛诺斯之刃*副"</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:J6" si="14">INT(255)</f>
         <v>255</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <f t="shared" ref="L6:S6" si="15">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <f t="shared" ref="T6:W6" si="16">INT(1)</f>
         <v>1</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="8">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="8">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="8">
         <f t="shared" ref="X6:Z6" si="17">INT(0)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="2:4">
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
+    <row r="7" s="3" customFormat="1" spans="2:4">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1968,6 +1970,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="str">
+        <f>道具!A3</f>
+        <v>I001</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>道具信息!B2</f>
+        <v>"炎魔之手"</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f>道具信息!C2</f>
+        <v>主手</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="str">
+        <f>道具!A4</f>
+        <v>I002</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>道具信息!B3</f>
+        <v>"霜之哀伤"</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>道具信息!C3</f>
+        <v>主手</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="str">
+        <f>道具!A5</f>
+        <v>I003</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>道具信息!B4</f>
+        <v>"埃辛诺斯之刃*主"</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>道具信息!C4</f>
+        <v>主手</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="str">
+        <f>道具!A6</f>
+        <v>I004</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f>道具信息!B5</f>
+        <v>"埃辛诺斯之刃*副"</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>道具信息!C5</f>
+        <v>副手</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P5"/>
@@ -2001,52 +2244,52 @@
     <col min="25" max="25" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
+      <c r="A3" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
+      <c r="A4" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>62</v>
+      <c r="A5" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B6"/>
@@ -2069,42 +2312,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2113,147 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C8"/>
@@ -2271,13 +2374,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2285,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2296,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2307,10 +2410,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2318,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2329,27 +2432,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>110</v>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
